--- a/respuestas/respuesta.xlsx
+++ b/respuestas/respuesta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,67 +436,130 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>respuesta_inv_status</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>respuesta_inv_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>respuesta_inv_detail</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>respuesta_inv_message</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>respuesta_mc_status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>respuesta_mc_id</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>respuesta_mc_detail</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>respuesta_mc_message</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>respuesta_vta_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>respuesta_vta_id</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>respuesta_vta_detail</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>respuesta_vta_message</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6637</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No está habilitado para sincronizar en estos momentos.&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6638</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No está habilitado para sincronizar en estos momentos.&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6639</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>No está habilitado para sincronizar en estos momentos.&lt;br&gt;</t>
         </is>
       </c>
     </row>

--- a/respuestas/respuesta.xlsx
+++ b/respuestas/respuesta.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="respuestas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,120 +446,120 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>respuesta_inv_status</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>respuesta_inv_id</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>respuesta_inv_detail</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>respuesta_inv_message</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>respuesta_mc_status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>respuesta_mc_id</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>respuesta_mc_detail</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>respuesta_mc_message</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>respuesta_vta_status</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>respuesta_vta_id</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>respuesta_vta_detail</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>respuesta_vta_message</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1b32af91-d322-4e4a-a15d-2f859d7a3460</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6637</v>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22-20-17</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6290</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No está habilitado para sincronizar en estos momentos.&lt;br&gt;</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6638</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6291</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>No está habilitado para sincronizar en estos momentos.&lt;br&gt;</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6639</v>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6292</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>No está habilitado para sincronizar en estos momentos.&lt;br&gt;</t>
         </is>
       </c>
     </row>

--- a/respuestas/respuesta.xlsx
+++ b/respuestas/respuesta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,46 @@
           <t>respuesta_vta_message</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>respuesta_fac_status</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>respuesta_fac_id</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>respuesta_fac_detail</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>respuesta_fac_message</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>respuesta_inv_scj_status</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>respuesta_inv_scj_id</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>respuesta_inv_scj_detail</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>respuesta_inv_scj_message</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,40 +566,668 @@
           <t>22-20-17</t>
         </is>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>6290</v>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>6291</v>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="b">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>6292</v>
       </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c476dab3-771f-4d61-ae8d-b5c84b7f4fc8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11-39-34</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6293</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6295</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>e655e0b4-d30b-4702-b6da-d4266cb469a1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11-44-04</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6296</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6297</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6298</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aa799cd1-5adf-4457-8be5-5d3244229f77</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11-51-39</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6299</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6301</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1db17481-0345-492e-8580-9c6587a018bc</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>09-40-23</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>167637</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Linea 2 (El código de producto 40102 no existe);Linea 3 (El código de producto 48574 no existe);Linea 4 (El código de producto 48766 no existe);Linea 5 (El código de producto 80138 no existe);Linea 6 (El código de producto 80201 no existe);Linea 7 (El código de producto 80300 no existe);Linea 8 (El código de producto 80303 no existe);Linea 9 (El código de producto 80367 no existe);Linea 10 (El código de producto 81100 no existe);Linea 11 (El código de producto 81720 no existe);Linea 12 (El código de producto 83235 no existe);Linea 13 (El código de producto 84624 no existe);Linea 14 (El código de producto 85077 no existe);Linea 15 (El código de producto 85133 no existe);Linea 16 (El código de producto 85286 no existe);Linea 17 (El código de producto 85824 no existe);Linea 18 (El código de producto 85942 no existe);Linea 19 (El código de producto 87026 no existe);Linea 20 (El código de producto 93611 no existe);Linea 21 (El código de producto 94134 no existe);Linea 22 (El código de producto 94429 no existe);Linea 23 (El código de producto 95685 no existe);Linea 24 (El código de producto 98326 no existe);Linea 25 (El código de producto 98337 no existe);Linea 26 (El código de producto 98338 no existe);Linea 27 (El código de producto 850632 no existe);Linea 28 (El código de producto 880012 no existe);Linea 29 (El código de producto 88419 no existe);Linea 30 (El código de producto 95780 no existe);Linea 31 (El código de producto 81153 no existe);Linea 32 (El código de producto 81180 no existe);Linea 33 (El código de producto 81203 no existe);Linea 34 (El código de producto 81244 no existe);Linea 35 (El código de producto 81271 no existe);Linea 36 (El código de producto 81281 no existe);Linea 37 (El código de producto 82613 no existe);Linea 38 (El código de producto 94416 no existe);Linea 39 (El código de producto 80027 no existe);Linea 40 (El código de producto 80719 no existe);Linea 41 (El código de producto 82322 no existe);Linea 42 (El código de producto 82369 no existe);Linea 43 (El código de producto 82612 no existe);Linea 44 (El código de producto 86466 no existe);Linea 45 (El código de producto 40103 no existe);Linea 46 (El código de producto 47087 no existe);Linea 47 (El código de producto 48371 no existe);Linea 48 (El código de producto 48679 no existe);Linea 49 (El código de producto 48774 no existe);Linea 50 (El código de producto 81182 no existe);Linea 51 (El código de producto 85063 no existe)&lt;br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>f6b98f8a-2636-404a-84c2-b4a43707def1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09-41-48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>167642</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Ha superado la cantidad de reintentos permitidos.&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>167647</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ha superado la cantidad de reintentos permitidos.&lt;br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7816e1dc-d133-4737-bb1e-79ed52e6e6d9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>09-42-40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>167652</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Ha superado la cantidad de reintentos permitidos.&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1efe7d00-b799-4d3b-ab90-e0b872d89fed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>09-44-11</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>167654</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ha superado la cantidad de reintentos permitidos.&lt;br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9bfd4ed8-6971-4abb-893d-0b6fd5f83879</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09-45-05</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7e034689-f475-43a8-91a9-bd259d1dbaf9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09-45-49</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>f4b175aa-e302-4447-af3b-104418e17716</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09-47-08</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Error al cargar el JSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>771e4901-0d74-468d-94ad-95d749d2d808</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>09-47-24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>167655</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ha superado la cantidad de reintentos permitidos.&lt;br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>75a8d666-58f1-441c-b892-1226f45ea298</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09-49-13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>167656</v>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ha superado la cantidad de reintentos permitidos.&lt;br&gt;</t>
         </is>
       </c>
     </row>
